--- a/Team-Data/2013-14/3-31-2013-14.xlsx
+++ b/Team-Data/2013-14/3-31-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,55 +733,55 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" t="n">
         <v>41</v>
       </c>
       <c r="G2" t="n">
-        <v>0.438</v>
+        <v>0.431</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
       </c>
       <c r="I2" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J2" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L2" t="n">
         <v>9.5</v>
       </c>
       <c r="M2" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="N2" t="n">
-        <v>0.366</v>
+        <v>0.369</v>
       </c>
       <c r="O2" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P2" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.78</v>
+        <v>0.779</v>
       </c>
       <c r="R2" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="T2" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="U2" t="n">
         <v>24.8</v>
@@ -735,25 +802,25 @@
         <v>19.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>101</v>
+        <v>100.9</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.2</v>
+        <v>-1.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF2" t="n">
         <v>18</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH2" t="n">
         <v>11</v>
@@ -765,10 +832,10 @@
         <v>23</v>
       </c>
       <c r="AK2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM2" t="n">
         <v>2</v>
@@ -777,16 +844,16 @@
         <v>11</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ2" t="n">
         <v>8</v>
       </c>
       <c r="AR2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS2" t="n">
         <v>20</v>
@@ -801,10 +868,10 @@
         <v>24</v>
       </c>
       <c r="AW2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-31-2013-14</t>
+          <t>2014-03-31</t>
         </is>
       </c>
     </row>
@@ -848,25 +915,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" t="n">
         <v>23</v>
       </c>
       <c r="F3" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" t="n">
-        <v>0.311</v>
+        <v>0.315</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
       </c>
       <c r="I3" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J3" t="n">
-        <v>83.8</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K3" t="n">
         <v>0.433</v>
@@ -875,34 +942,34 @@
         <v>6.7</v>
       </c>
       <c r="M3" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0.33</v>
+        <v>0.331</v>
       </c>
       <c r="O3" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P3" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.773</v>
+        <v>0.774</v>
       </c>
       <c r="R3" t="n">
         <v>12</v>
       </c>
       <c r="S3" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T3" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U3" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V3" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W3" t="n">
         <v>7.1</v>
@@ -911,22 +978,22 @@
         <v>4.3</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.40000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>-4.2</v>
+        <v>-4.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE3" t="n">
         <v>26</v>
@@ -947,7 +1014,7 @@
         <v>10</v>
       </c>
       <c r="AK3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL3" t="n">
         <v>23</v>
@@ -971,10 +1038,10 @@
         <v>7</v>
       </c>
       <c r="AS3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AT3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU3" t="n">
         <v>25</v>
@@ -983,13 +1050,13 @@
         <v>21</v>
       </c>
       <c r="AW3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX3" t="n">
         <v>21</v>
       </c>
       <c r="AY3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ3" t="n">
         <v>19</v>
@@ -998,7 +1065,7 @@
         <v>28</v>
       </c>
       <c r="BB3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC3" t="n">
         <v>25</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-31-2013-14</t>
+          <t>2014-03-31</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-0.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
         <v>14</v>
@@ -1123,7 +1190,7 @@
         <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ4" t="n">
         <v>29</v>
@@ -1147,10 +1214,10 @@
         <v>9</v>
       </c>
       <c r="AQ4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS4" t="n">
         <v>28</v>
@@ -1168,7 +1235,7 @@
         <v>6</v>
       </c>
       <c r="AX4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY4" t="n">
         <v>9</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-31-2013-14</t>
+          <t>2014-03-31</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" t="n">
         <v>38</v>
       </c>
       <c r="G5" t="n">
-        <v>0.486</v>
+        <v>0.479</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
@@ -1236,25 +1303,25 @@
         <v>0.442</v>
       </c>
       <c r="L5" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M5" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="N5" t="n">
-        <v>0.349</v>
+        <v>0.352</v>
       </c>
       <c r="O5" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P5" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.74</v>
+        <v>0.738</v>
       </c>
       <c r="R5" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S5" t="n">
         <v>32.8</v>
@@ -1266,7 +1333,7 @@
         <v>21.3</v>
       </c>
       <c r="V5" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="W5" t="n">
         <v>6.1</v>
@@ -1275,25 +1342,25 @@
         <v>5.2</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AA5" t="n">
         <v>20.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.5</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1</v>
+        <v>-1.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
@@ -1311,7 +1378,7 @@
         <v>22</v>
       </c>
       <c r="AK5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL5" t="n">
         <v>26</v>
@@ -1320,7 +1387,7 @@
         <v>27</v>
       </c>
       <c r="AN5" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AO5" t="n">
         <v>14</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-31-2013-14</t>
+          <t>2014-03-31</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" t="n">
         <v>32</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
@@ -1418,34 +1485,34 @@
         <v>0.43</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M6" t="n">
         <v>17.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.344</v>
+        <v>0.346</v>
       </c>
       <c r="O6" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P6" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.777</v>
+        <v>0.775</v>
       </c>
       <c r="R6" t="n">
         <v>11.6</v>
       </c>
       <c r="S6" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="T6" t="n">
-        <v>44.5</v>
+        <v>44.6</v>
       </c>
       <c r="U6" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V6" t="n">
         <v>15.2</v>
@@ -1463,25 +1530,25 @@
         <v>19.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.09999999999999</v>
+        <v>93</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
         <v>4</v>
@@ -1493,10 +1560,10 @@
         <v>27</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM6" t="n">
         <v>28</v>
@@ -1508,13 +1575,13 @@
         <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
         <v>9</v>
       </c>
       <c r="AR6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS6" t="n">
         <v>8</v>
@@ -1532,7 +1599,7 @@
         <v>22</v>
       </c>
       <c r="AX6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-31-2013-14</t>
+          <t>2014-03-31</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1742,7 @@
         <v>9</v>
       </c>
       <c r="AK7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL7" t="n">
         <v>18</v>
@@ -1687,7 +1754,7 @@
         <v>16</v>
       </c>
       <c r="AO7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP7" t="n">
         <v>18</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-31-2013-14</t>
+          <t>2014-03-31</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1848,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1872,7 +1939,7 @@
         <v>16</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -1887,7 +1954,7 @@
         <v>26</v>
       </c>
       <c r="AU8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV8" t="n">
         <v>4</v>
@@ -1896,7 +1963,7 @@
         <v>3</v>
       </c>
       <c r="AX8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY8" t="n">
         <v>3</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-31-2013-14</t>
+          <t>2014-03-31</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" t="n">
         <v>32</v>
       </c>
       <c r="F9" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" t="n">
-        <v>0.432</v>
+        <v>0.438</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
@@ -1958,10 +2025,10 @@
         <v>38.1</v>
       </c>
       <c r="J9" t="n">
-        <v>85.2</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L9" t="n">
         <v>8.4</v>
@@ -1973,13 +2040,13 @@
         <v>0.359</v>
       </c>
       <c r="O9" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P9" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.718</v>
+        <v>0.72</v>
       </c>
       <c r="R9" t="n">
         <v>12.2</v>
@@ -2000,34 +2067,34 @@
         <v>7.5</v>
       </c>
       <c r="X9" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y9" t="n">
         <v>5.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AA9" t="n">
         <v>21.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="AC9" t="n">
         <v>-2.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
       </c>
       <c r="AF9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH9" t="n">
         <v>28</v>
@@ -2042,7 +2109,7 @@
         <v>20</v>
       </c>
       <c r="AL9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AM9" t="n">
         <v>9</v>
@@ -2066,7 +2133,7 @@
         <v>7</v>
       </c>
       <c r="AT9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
         <v>12</v>
@@ -2081,7 +2148,7 @@
         <v>5</v>
       </c>
       <c r="AY9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-31-2013-14</t>
+          <t>2014-03-31</t>
         </is>
       </c>
     </row>
@@ -2122,61 +2189,61 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" t="n">
         <v>47</v>
       </c>
       <c r="G10" t="n">
-        <v>0.365</v>
+        <v>0.356</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="J10" t="n">
-        <v>86.90000000000001</v>
+        <v>86.7</v>
       </c>
       <c r="K10" t="n">
         <v>0.448</v>
       </c>
       <c r="L10" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="N10" t="n">
-        <v>0.318</v>
+        <v>0.317</v>
       </c>
       <c r="O10" t="n">
         <v>16.8</v>
       </c>
       <c r="P10" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.669</v>
+        <v>0.668</v>
       </c>
       <c r="R10" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="S10" t="n">
         <v>30.9</v>
       </c>
       <c r="T10" t="n">
-        <v>45.2</v>
+        <v>45.1</v>
       </c>
       <c r="U10" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V10" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W10" t="n">
         <v>8.5</v>
@@ -2185,22 +2252,22 @@
         <v>5</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA10" t="n">
         <v>20.4</v>
       </c>
       <c r="AB10" t="n">
-        <v>100.7</v>
+        <v>100.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.4</v>
+        <v>-3.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2212,7 +2279,7 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
         <v>6</v>
@@ -2221,10 +2288,10 @@
         <v>4</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM10" t="n">
         <v>24</v>
@@ -2245,16 +2312,16 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU10" t="n">
         <v>21</v>
       </c>
-      <c r="AT10" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>19</v>
-      </c>
       <c r="AV10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW10" t="n">
         <v>7</v>
@@ -2266,13 +2333,13 @@
         <v>17</v>
       </c>
       <c r="AZ10" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA10" t="n">
         <v>15</v>
       </c>
-      <c r="BA10" t="n">
+      <c r="BB10" t="n">
         <v>17</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>15</v>
       </c>
       <c r="BC10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-31-2013-14</t>
+          <t>2014-03-31</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>4.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2418,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ11" t="n">
         <v>18</v>
@@ -2433,7 +2500,7 @@
         <v>2</v>
       </c>
       <c r="AU11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV11" t="n">
         <v>22</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-31-2013-14</t>
+          <t>2014-03-31</t>
         </is>
       </c>
     </row>
@@ -2564,13 +2631,13 @@
         <v>5.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
       </c>
       <c r="AF12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG12" t="n">
         <v>6</v>
@@ -2612,7 +2679,7 @@
         <v>5</v>
       </c>
       <c r="AT12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU12" t="n">
         <v>20</v>
@@ -2621,7 +2688,7 @@
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX12" t="n">
         <v>3</v>
@@ -2630,7 +2697,7 @@
         <v>22</v>
       </c>
       <c r="AZ12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2639,7 +2706,7 @@
         <v>2</v>
       </c>
       <c r="BC12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-31-2013-14</t>
+          <t>2014-03-31</t>
         </is>
       </c>
     </row>
@@ -2668,37 +2735,37 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" t="n">
         <v>52</v>
       </c>
       <c r="F13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.703</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>35.9</v>
+        <v>36.1</v>
       </c>
       <c r="J13" t="n">
-        <v>80.40000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="K13" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L13" t="n">
         <v>6.6</v>
       </c>
       <c r="M13" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="N13" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="O13" t="n">
         <v>18.3</v>
@@ -2710,19 +2777,19 @@
         <v>0.784</v>
       </c>
       <c r="R13" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S13" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="T13" t="n">
-        <v>45</v>
+        <v>45.1</v>
       </c>
       <c r="U13" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="V13" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W13" t="n">
         <v>6.9</v>
@@ -2740,34 +2807,34 @@
         <v>22</v>
       </c>
       <c r="AB13" t="n">
-        <v>96.8</v>
+        <v>97</v>
       </c>
       <c r="AC13" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ13" t="n">
         <v>26</v>
       </c>
       <c r="AK13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL13" t="n">
         <v>24</v>
@@ -2776,7 +2843,7 @@
         <v>25</v>
       </c>
       <c r="AN13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO13" t="n">
         <v>11</v>
@@ -2794,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AU13" t="n">
         <v>28</v>
@@ -2809,20 +2876,20 @@
         <v>4</v>
       </c>
       <c r="AY13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ13" t="n">
         <v>13</v>
       </c>
       <c r="BA13" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>23</v>
+      </c>
+      <c r="BC13" t="n">
         <v>5</v>
       </c>
-      <c r="BB13" t="n">
-        <v>24</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>6</v>
-      </c>
       <c r="BD13" t="n">
         <v>10</v>
       </c>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-31-2013-14</t>
+          <t>2014-03-31</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" t="n">
         <v>22</v>
       </c>
       <c r="G14" t="n">
-        <v>0.707</v>
+        <v>0.703</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
@@ -2877,19 +2944,19 @@
         <v>8.4</v>
       </c>
       <c r="M14" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.353</v>
+        <v>0.352</v>
       </c>
       <c r="O14" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="P14" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.729</v>
+        <v>0.728</v>
       </c>
       <c r="R14" t="n">
         <v>10.5</v>
@@ -2898,19 +2965,19 @@
         <v>32.4</v>
       </c>
       <c r="T14" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U14" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="V14" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W14" t="n">
         <v>8.6</v>
       </c>
       <c r="X14" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y14" t="n">
         <v>3.4</v>
@@ -2922,13 +2989,13 @@
         <v>23.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.6</v>
+        <v>107.5</v>
       </c>
       <c r="AC14" t="n">
         <v>7.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2940,7 +3007,7 @@
         <v>3</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
         <v>3</v>
@@ -2952,13 +3019,13 @@
         <v>4</v>
       </c>
       <c r="AL14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AM14" t="n">
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
@@ -2976,7 +3043,7 @@
         <v>11</v>
       </c>
       <c r="AT14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-31-2013-14</t>
+          <t>2014-03-31</t>
         </is>
       </c>
     </row>
@@ -3110,16 +3177,16 @@
         <v>-6.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF15" t="n">
         <v>24</v>
       </c>
       <c r="AG15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
         <v>30</v>
@@ -3128,7 +3195,7 @@
         <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK15" t="n">
         <v>14</v>
@@ -3158,7 +3225,7 @@
         <v>15</v>
       </c>
       <c r="AT15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU15" t="n">
         <v>4</v>
@@ -3179,7 +3246,7 @@
         <v>11</v>
       </c>
       <c r="BA15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB15" t="n">
         <v>12</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-31-2013-14</t>
+          <t>2014-03-31</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="n">
         <v>30</v>
       </c>
       <c r="G16" t="n">
-        <v>0.595</v>
+        <v>0.589</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
@@ -3241,22 +3308,22 @@
         <v>4.9</v>
       </c>
       <c r="M16" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="N16" t="n">
-        <v>0.353</v>
+        <v>0.351</v>
       </c>
       <c r="O16" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="P16" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.742</v>
+        <v>0.745</v>
       </c>
       <c r="R16" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S16" t="n">
         <v>30.9</v>
@@ -3283,7 +3350,7 @@
         <v>19.3</v>
       </c>
       <c r="AA16" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB16" t="n">
         <v>95.59999999999999</v>
@@ -3292,19 +3359,19 @@
         <v>1.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF16" t="n">
         <v>9</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI16" t="n">
         <v>16</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
         <v>30</v>
@@ -3334,10 +3401,10 @@
         <v>23</v>
       </c>
       <c r="AR16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT16" t="n">
         <v>20</v>
@@ -3352,7 +3419,7 @@
         <v>13</v>
       </c>
       <c r="AX16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY16" t="n">
         <v>19</v>
@@ -3364,7 +3431,7 @@
         <v>29</v>
       </c>
       <c r="BB16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC16" t="n">
         <v>13</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-31-2013-14</t>
+          <t>2014-03-31</t>
         </is>
       </c>
     </row>
@@ -3396,25 +3463,25 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E17" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" t="n">
         <v>22</v>
       </c>
       <c r="G17" t="n">
-        <v>0.699</v>
+        <v>0.694</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
       </c>
       <c r="I17" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J17" t="n">
-        <v>76.59999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="K17" t="n">
         <v>0.504</v>
@@ -3426,7 +3493,7 @@
         <v>21.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.365</v>
+        <v>0.367</v>
       </c>
       <c r="O17" t="n">
         <v>17.7</v>
@@ -3435,7 +3502,7 @@
         <v>23.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.761</v>
+        <v>0.76</v>
       </c>
       <c r="R17" t="n">
         <v>7.6</v>
@@ -3456,7 +3523,7 @@
         <v>8.9</v>
       </c>
       <c r="X17" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y17" t="n">
         <v>3</v>
@@ -3465,16 +3532,16 @@
         <v>19.7</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>102.9</v>
+        <v>103</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3483,13 +3550,13 @@
         <v>3</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH17" t="n">
         <v>11</v>
       </c>
       <c r="AI17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3504,16 +3571,16 @@
         <v>15</v>
       </c>
       <c r="AN17" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AO17" t="n">
         <v>15</v>
       </c>
       <c r="AP17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>15</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>14</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3525,16 +3592,16 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW17" t="n">
         <v>2</v>
       </c>
       <c r="AX17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3543,7 +3610,7 @@
         <v>8</v>
       </c>
       <c r="BA17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB17" t="n">
         <v>11</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-31-2013-14</t>
+          <t>2014-03-31</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18" t="n">
         <v>14</v>
       </c>
       <c r="F18" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G18" t="n">
-        <v>0.189</v>
+        <v>0.192</v>
       </c>
       <c r="H18" t="n">
         <v>48.5</v>
@@ -3596,46 +3663,46 @@
         <v>35.9</v>
       </c>
       <c r="J18" t="n">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="K18" t="n">
         <v>0.434</v>
       </c>
       <c r="L18" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M18" t="n">
         <v>19.6</v>
       </c>
       <c r="N18" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O18" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="P18" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.75</v>
+        <v>0.749</v>
       </c>
       <c r="R18" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S18" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T18" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U18" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V18" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W18" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X18" t="n">
         <v>4.9</v>
@@ -3647,16 +3714,16 @@
         <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB18" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="AC18" t="n">
         <v>-8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3671,10 +3738,10 @@
         <v>7</v>
       </c>
       <c r="AI18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK18" t="n">
         <v>26</v>
@@ -3689,10 +3756,10 @@
         <v>18</v>
       </c>
       <c r="AO18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP18" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AQ18" t="n">
         <v>20</v>
@@ -3704,7 +3771,7 @@
         <v>30</v>
       </c>
       <c r="AT18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU18" t="n">
         <v>16</v>
@@ -3725,7 +3792,7 @@
         <v>18</v>
       </c>
       <c r="BA18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-31-2013-14</t>
+          <t>2014-03-31</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" t="n">
         <v>36</v>
       </c>
       <c r="F19" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" t="n">
-        <v>0.493</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3778,7 +3845,7 @@
         <v>38.8</v>
       </c>
       <c r="J19" t="n">
-        <v>87.59999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K19" t="n">
         <v>0.443</v>
@@ -3787,22 +3854,22 @@
         <v>7.5</v>
       </c>
       <c r="M19" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="N19" t="n">
         <v>0.344</v>
       </c>
       <c r="O19" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="P19" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="Q19" t="n">
         <v>0.78</v>
       </c>
       <c r="R19" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S19" t="n">
         <v>32.3</v>
@@ -3811,10 +3878,10 @@
         <v>44.9</v>
       </c>
       <c r="U19" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="V19" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="W19" t="n">
         <v>8.699999999999999</v>
@@ -3826,19 +3893,19 @@
         <v>5.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
@@ -3853,7 +3920,7 @@
         <v>23</v>
       </c>
       <c r="AI19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ19" t="n">
         <v>2</v>
@@ -3889,7 +3956,7 @@
         <v>8</v>
       </c>
       <c r="AU19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV19" t="n">
         <v>5</v>
@@ -3901,7 +3968,7 @@
         <v>30</v>
       </c>
       <c r="AY19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ19" t="n">
         <v>3</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-31-2013-14</t>
+          <t>2014-03-31</t>
         </is>
       </c>
     </row>
@@ -3942,28 +4009,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" t="n">
         <v>32</v>
       </c>
       <c r="F20" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" t="n">
-        <v>0.432</v>
+        <v>0.438</v>
       </c>
       <c r="H20" t="n">
         <v>48.5</v>
       </c>
       <c r="I20" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J20" t="n">
-        <v>82.59999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="K20" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L20" t="n">
         <v>5.9</v>
@@ -3978,19 +4045,19 @@
         <v>18.1</v>
       </c>
       <c r="P20" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="Q20" t="n">
         <v>0.771</v>
       </c>
       <c r="R20" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S20" t="n">
         <v>30.4</v>
       </c>
       <c r="T20" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U20" t="n">
         <v>21.2</v>
@@ -3999,37 +4066,37 @@
         <v>13.9</v>
       </c>
       <c r="W20" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X20" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z20" t="n">
         <v>22.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC20" t="n">
         <v>-2.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
         <v>18</v>
       </c>
       <c r="AF20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH20" t="n">
         <v>8</v>
@@ -4038,7 +4105,7 @@
         <v>14</v>
       </c>
       <c r="AJ20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK20" t="n">
         <v>9</v>
@@ -4062,7 +4129,7 @@
         <v>11</v>
       </c>
       <c r="AR20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS20" t="n">
         <v>25</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-31-2013-14</t>
+          <t>2014-03-31</t>
         </is>
       </c>
     </row>
@@ -4124,61 +4191,61 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" t="n">
         <v>43</v>
       </c>
       <c r="G21" t="n">
-        <v>0.427</v>
+        <v>0.419</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J21" t="n">
-        <v>82.7</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L21" t="n">
         <v>9.1</v>
       </c>
       <c r="M21" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="N21" t="n">
-        <v>0.37</v>
+        <v>0.371</v>
       </c>
       <c r="O21" t="n">
         <v>15.2</v>
       </c>
       <c r="P21" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.755</v>
+        <v>0.756</v>
       </c>
       <c r="R21" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S21" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T21" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="U21" t="n">
         <v>20.3</v>
       </c>
       <c r="V21" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W21" t="n">
         <v>7.5</v>
@@ -4190,22 +4257,22 @@
         <v>3.6</v>
       </c>
       <c r="Z21" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>-1.5</v>
+        <v>-1.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE21" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF21" t="n">
         <v>21</v>
@@ -4220,10 +4287,10 @@
         <v>19</v>
       </c>
       <c r="AJ21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="n">
         <v>6</v>
@@ -4244,13 +4311,13 @@
         <v>17</v>
       </c>
       <c r="AR21" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AS21" t="n">
         <v>27</v>
       </c>
       <c r="AT21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU21" t="n">
         <v>26</v>
@@ -4265,7 +4332,7 @@
         <v>19</v>
       </c>
       <c r="AY21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ21" t="n">
         <v>23</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-31-2013-14</t>
+          <t>2014-03-31</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4402,7 +4469,7 @@
         <v>4</v>
       </c>
       <c r="AJ22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK22" t="n">
         <v>6</v>
@@ -4414,13 +4481,13 @@
         <v>14</v>
       </c>
       <c r="AN22" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
       </c>
       <c r="AP22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ22" t="n">
         <v>2</v>
@@ -4432,7 +4499,7 @@
         <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU22" t="n">
         <v>13</v>
@@ -4441,13 +4508,13 @@
         <v>27</v>
       </c>
       <c r="AW22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
       </c>
       <c r="AY22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ22" t="n">
         <v>26</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-31-2013-14</t>
+          <t>2014-03-31</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-5.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
@@ -4578,7 +4645,7 @@
         <v>28</v>
       </c>
       <c r="AH23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI23" t="n">
         <v>21</v>
@@ -4596,7 +4663,7 @@
         <v>22</v>
       </c>
       <c r="AN23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO23" t="n">
         <v>26</v>
@@ -4629,7 +4696,7 @@
         <v>24</v>
       </c>
       <c r="AY23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ23" t="n">
         <v>10</v>
@@ -4638,7 +4705,7 @@
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-31-2013-14</t>
+          <t>2014-03-31</t>
         </is>
       </c>
     </row>
@@ -4670,73 +4737,73 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
       </c>
       <c r="F24" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G24" t="n">
-        <v>0.216</v>
+        <v>0.219</v>
       </c>
       <c r="H24" t="n">
         <v>48.5</v>
       </c>
       <c r="I24" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J24" t="n">
-        <v>87.7</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="K24" t="n">
         <v>0.43</v>
       </c>
       <c r="L24" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M24" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="N24" t="n">
-        <v>0.311</v>
+        <v>0.31</v>
       </c>
       <c r="O24" t="n">
         <v>16.4</v>
       </c>
       <c r="P24" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.709</v>
+        <v>0.71</v>
       </c>
       <c r="R24" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S24" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="T24" t="n">
         <v>43.4</v>
       </c>
       <c r="U24" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V24" t="n">
         <v>17.2</v>
       </c>
       <c r="W24" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X24" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y24" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Z24" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA24" t="n">
         <v>20.7</v>
@@ -4748,7 +4815,7 @@
         <v>-11</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4769,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="AK24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL24" t="n">
         <v>19</v>
@@ -4781,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP24" t="n">
         <v>17</v>
@@ -4790,7 +4857,7 @@
         <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS24" t="n">
         <v>17</v>
@@ -4808,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-31-2013-14</t>
+          <t>2014-03-31</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>9</v>
@@ -4942,10 +5009,10 @@
         <v>9</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ25" t="n">
         <v>11</v>
@@ -4954,7 +5021,7 @@
         <v>8</v>
       </c>
       <c r="AL25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM25" t="n">
         <v>4</v>
@@ -4972,7 +5039,7 @@
         <v>16</v>
       </c>
       <c r="AR25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS25" t="n">
         <v>16</v>
@@ -4984,19 +5051,19 @@
         <v>29</v>
       </c>
       <c r="AV25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX25" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AY25" t="n">
         <v>7</v>
       </c>
       <c r="AZ25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA25" t="n">
         <v>8</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-31-2013-14</t>
+          <t>2014-03-31</t>
         </is>
       </c>
     </row>
@@ -5133,7 +5200,7 @@
         <v>3</v>
       </c>
       <c r="AK26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="n">
         <v>3</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-31-2013-14</t>
+          <t>2014-03-31</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F27" t="n">
         <v>48</v>
       </c>
       <c r="G27" t="n">
-        <v>0.351</v>
+        <v>0.342</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5243,16 +5310,16 @@
         <v>6.2</v>
       </c>
       <c r="M27" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.336</v>
+        <v>0.337</v>
       </c>
       <c r="O27" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="P27" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="Q27" t="n">
         <v>0.763</v>
@@ -5285,16 +5352,16 @@
         <v>22.9</v>
       </c>
       <c r="AA27" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="AB27" t="n">
         <v>101</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.4</v>
+        <v>-2.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5315,7 +5382,7 @@
         <v>19</v>
       </c>
       <c r="AK27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL27" t="n">
         <v>25</v>
@@ -5348,19 +5415,19 @@
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW27" t="n">
         <v>21</v>
       </c>
       <c r="AX27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA27" t="n">
         <v>4</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-31-2013-14</t>
+          <t>2014-03-31</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E28" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.784</v>
+        <v>0.781</v>
       </c>
       <c r="H28" t="n">
         <v>48.2</v>
@@ -5416,7 +5483,7 @@
         <v>40.6</v>
       </c>
       <c r="J28" t="n">
-        <v>83</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K28" t="n">
         <v>0.489</v>
@@ -5428,34 +5495,34 @@
         <v>21.2</v>
       </c>
       <c r="N28" t="n">
-        <v>0.402</v>
+        <v>0.401</v>
       </c>
       <c r="O28" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="P28" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.784</v>
+        <v>0.783</v>
       </c>
       <c r="R28" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="S28" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="T28" t="n">
         <v>43.3</v>
       </c>
       <c r="U28" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="V28" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W28" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X28" t="n">
         <v>5.3</v>
@@ -5473,10 +5540,10 @@
         <v>105.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5512,10 +5579,10 @@
         <v>27</v>
       </c>
       <c r="AP28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AR28" t="n">
         <v>27</v>
@@ -5530,10 +5597,10 @@
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX28" t="n">
         <v>7</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-31-2013-14</t>
+          <t>2014-03-31</t>
         </is>
       </c>
     </row>
@@ -5580,55 +5647,55 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E29" t="n">
         <v>42</v>
       </c>
       <c r="F29" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.575</v>
       </c>
       <c r="H29" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I29" t="n">
         <v>36.5</v>
       </c>
       <c r="J29" t="n">
-        <v>82.09999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="K29" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L29" t="n">
         <v>8.4</v>
       </c>
       <c r="M29" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="N29" t="n">
-        <v>0.366</v>
+        <v>0.367</v>
       </c>
       <c r="O29" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="P29" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.783</v>
+        <v>0.784</v>
       </c>
       <c r="R29" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S29" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="T29" t="n">
-        <v>42.7</v>
+        <v>42.9</v>
       </c>
       <c r="U29" t="n">
         <v>21.2</v>
@@ -5640,7 +5707,7 @@
         <v>7.1</v>
       </c>
       <c r="X29" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y29" t="n">
         <v>4.4</v>
@@ -5649,16 +5716,16 @@
         <v>22.9</v>
       </c>
       <c r="AA29" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AB29" t="n">
-        <v>100.7</v>
+        <v>100.9</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
@@ -5694,10 +5761,10 @@
         <v>6</v>
       </c>
       <c r="AP29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AR29" t="n">
         <v>12</v>
@@ -5706,10 +5773,10 @@
         <v>19</v>
       </c>
       <c r="AT29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AV29" t="n">
         <v>9</v>
@@ -5718,19 +5785,19 @@
         <v>23</v>
       </c>
       <c r="AX29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY29" t="n">
         <v>11</v>
       </c>
       <c r="AZ29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC29" t="n">
         <v>9</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-31-2013-14</t>
+          <t>2014-03-31</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E30" t="n">
         <v>23</v>
       </c>
       <c r="F30" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G30" t="n">
-        <v>0.307</v>
+        <v>0.311</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
@@ -5783,46 +5850,46 @@
         <v>80.8</v>
       </c>
       <c r="K30" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L30" t="n">
         <v>6.8</v>
       </c>
       <c r="M30" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N30" t="n">
         <v>0.35</v>
       </c>
       <c r="O30" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="P30" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.745</v>
+        <v>0.746</v>
       </c>
       <c r="R30" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S30" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T30" t="n">
-        <v>41.1</v>
+        <v>40.9</v>
       </c>
       <c r="U30" t="n">
         <v>20</v>
       </c>
       <c r="V30" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W30" t="n">
         <v>6.8</v>
       </c>
       <c r="X30" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y30" t="n">
         <v>4.9</v>
@@ -5831,16 +5898,16 @@
         <v>20.7</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.3</v>
+        <v>94.5</v>
       </c>
       <c r="AC30" t="n">
         <v>-7</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
         <v>26</v>
@@ -5855,13 +5922,13 @@
         <v>29</v>
       </c>
       <c r="AI30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ30" t="n">
         <v>25</v>
       </c>
       <c r="AK30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL30" t="n">
         <v>22</v>
@@ -5876,13 +5943,13 @@
         <v>24</v>
       </c>
       <c r="AP30" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AQ30" t="n">
         <v>22</v>
       </c>
       <c r="AR30" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AS30" t="n">
         <v>26</v>
@@ -5894,7 +5961,7 @@
         <v>27</v>
       </c>
       <c r="AV30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW30" t="n">
         <v>27</v>
@@ -5909,7 +5976,7 @@
         <v>17</v>
       </c>
       <c r="BA30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB30" t="n">
         <v>29</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-31-2013-14</t>
+          <t>2014-03-31</t>
         </is>
       </c>
     </row>
@@ -5944,25 +6011,25 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" t="n">
         <v>38</v>
       </c>
       <c r="F31" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31" t="n">
-        <v>0.514</v>
+        <v>0.521</v>
       </c>
       <c r="H31" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="I31" t="n">
         <v>38.5</v>
       </c>
       <c r="J31" t="n">
-        <v>84.7</v>
+        <v>84.8</v>
       </c>
       <c r="K31" t="n">
         <v>0.455</v>
@@ -5971,19 +6038,19 @@
         <v>8.1</v>
       </c>
       <c r="M31" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="N31" t="n">
-        <v>0.387</v>
+        <v>0.385</v>
       </c>
       <c r="O31" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="P31" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.733</v>
+        <v>0.734</v>
       </c>
       <c r="R31" t="n">
         <v>11</v>
@@ -6007,22 +6074,22 @@
         <v>4.7</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA31" t="n">
         <v>19.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="AC31" t="n">
         <v>0.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
@@ -6040,10 +6107,10 @@
         <v>11</v>
       </c>
       <c r="AJ31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL31" t="n">
         <v>15</v>
@@ -6067,7 +6134,7 @@
         <v>17</v>
       </c>
       <c r="AS31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT31" t="n">
         <v>19</v>
@@ -6079,7 +6146,7 @@
         <v>15</v>
       </c>
       <c r="AW31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX31" t="n">
         <v>15</v>
@@ -6094,7 +6161,7 @@
         <v>23</v>
       </c>
       <c r="BB31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC31" t="n">
         <v>15</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-31-2013-14</t>
+          <t>2014-03-31</t>
         </is>
       </c>
     </row>
